--- a/output/3_0_0/nomogram_config_3_0_0.xlsx
+++ b/output/3_0_0/nomogram_config_3_0_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>feature</t>
   </si>
@@ -55,6 +55,9 @@
     <t>AvgCyclomatic</t>
   </si>
   <si>
+    <t>AvgCyclomaticModified</t>
+  </si>
+  <si>
     <t>AvgEssential</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>CountDeclClass</t>
   </si>
   <si>
+    <t>CountDeclClassMethod</t>
+  </si>
+  <si>
     <t>CountDeclMethodDefault</t>
   </si>
   <si>
@@ -106,7 +112,7 @@
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMin</t>
+    <t>CountPathMin-divided-by-1,000</t>
   </si>
   <si>
     <t>CountPathMean-divided-by-1,000,000</t>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0771</v>
+        <v>-2.2322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1066</v>
+        <v>-0.0048</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0104</v>
+        <v>-0.093</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -534,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.012</v>
+        <v>0.1353</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -551,13 +557,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0399</v>
+        <v>-0.1384</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -568,13 +574,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0502</v>
+        <v>-0.0861</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -585,13 +591,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0796</v>
+        <v>0.0854</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -602,13 +608,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.037</v>
+        <v>-0.156</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -619,13 +625,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.008699999999999999</v>
+        <v>0.0158</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -636,13 +642,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.1039</v>
+        <v>0.0213</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>3305</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -653,13 +659,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06759999999999999</v>
+        <v>-0.0016</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>412</v>
+        <v>3305</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -670,13 +676,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1135</v>
+        <v>-0.0067</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>826</v>
+        <v>1238</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -687,13 +693,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0517</v>
+        <v>0.004</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>473</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -704,13 +710,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.1216</v>
+        <v>0.0134</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>826</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -721,13 +727,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.0281</v>
+        <v>0.0188</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -738,13 +744,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.1308</v>
+        <v>-0.1983</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -755,13 +761,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0708</v>
+        <v>0.0014</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -772,13 +778,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.1016</v>
+        <v>-0.6881</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -789,13 +795,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0083</v>
+        <v>0.075</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>434</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -806,13 +812,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.083</v>
+        <v>-0.0183</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -823,13 +829,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07770000000000001</v>
+        <v>0.0028</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -840,13 +846,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0049</v>
+        <v>-0.06270000000000001</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -857,13 +863,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0497</v>
+        <v>0.0403</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -874,13 +880,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0011</v>
+        <v>0.0162</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -891,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.004</v>
+        <v>-0.0009</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>1363</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -908,13 +914,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0049</v>
+        <v>0.0189</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -925,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -942,15 +948,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.021</v>
+        <v>0.0727</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.2488</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.0001</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/3_0_0/nomogram_config_3_0_0.xlsx
+++ b/output/3_0_0/nomogram_config_3_0_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>feature</t>
   </si>
@@ -46,18 +46,12 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>AvgCountLineBlank</t>
-  </si>
-  <si>
     <t>AvgCountLineComment</t>
   </si>
   <si>
     <t>AvgCyclomatic</t>
   </si>
   <si>
-    <t>AvgCyclomaticModified</t>
-  </si>
-  <si>
     <t>AvgEssential</t>
   </si>
   <si>
@@ -73,18 +67,6 @@
     <t>CountDeclClass</t>
   </si>
   <si>
-    <t>CountDeclClassMethod</t>
-  </si>
-  <si>
-    <t>CountDeclMethodDefault</t>
-  </si>
-  <si>
-    <t>CountDeclMethodPrivate</t>
-  </si>
-  <si>
-    <t>MaxCyclomatic</t>
-  </si>
-  <si>
     <t>MaxInheritanceTree</t>
   </si>
   <si>
@@ -106,13 +88,10 @@
     <t>CountOutputMin</t>
   </si>
   <si>
-    <t>CountOutputMean</t>
-  </si>
-  <si>
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMin-divided-by-1,000</t>
+    <t>CountPathMin</t>
   </si>
   <si>
     <t>CountPathMean-divided-by-1,000,000</t>
@@ -122,9 +101,6 @@
   </si>
   <si>
     <t>MaxNestingMin</t>
-  </si>
-  <si>
-    <t>MaxNestingMean</t>
   </si>
   <si>
     <t>MaxNestingMax</t>
@@ -459,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-2.2322</v>
+        <v>-0.2425</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -506,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0048</v>
+        <v>0.0193</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -523,13 +499,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.093</v>
+        <v>0.0444</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -540,13 +516,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1353</v>
+        <v>0.2056</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -557,13 +533,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.1384</v>
+        <v>-0.1083</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -574,13 +550,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0861</v>
+        <v>-0.3496</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -591,13 +567,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0854</v>
+        <v>0.0023</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -608,13 +584,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.156</v>
+        <v>0.0162</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -625,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0158</v>
+        <v>0.0003</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>149</v>
+        <v>3305</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -642,13 +618,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0213</v>
+        <v>0.5546</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -659,13 +635,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0016</v>
+        <v>0.0105</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3305</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -676,13 +652,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0067</v>
+        <v>0.3801</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1238</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -693,13 +669,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.004</v>
+        <v>0.0558</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>473</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -710,13 +686,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0134</v>
+        <v>-0.0362</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>826</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -727,13 +703,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0188</v>
+        <v>0.0051</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>145</v>
+        <v>434</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -744,13 +720,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.1983</v>
+        <v>-0.0421</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -761,13 +737,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0014</v>
+        <v>-0.0004</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -778,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.6881</v>
+        <v>0.0146</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.699999999999999</v>
+        <v>464</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -795,13 +771,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.075</v>
+        <v>-0.0521</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -812,13 +788,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0183</v>
+        <v>0.0002</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -829,13 +805,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0028</v>
+        <v>0.2081</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>434</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -846,151 +822,15 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06270000000000001</v>
+        <v>0.0401</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.0403</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.0162</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>208</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>-0.0009</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1363</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.0189</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>200</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-0.0008</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1000</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.0727</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2488</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.0001</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/3_0_0/nomogram_config_3_0_0.xlsx
+++ b/output/3_0_0/nomogram_config_3_0_0.xlsx
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2425</v>
+        <v>-0.333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0193</v>
+        <v>0.0155</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0444</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2056</v>
+        <v>0.1664</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.1083</v>
+        <v>-0.1477</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.3496</v>
+        <v>-0.2364</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0023</v>
+        <v>0.003</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0162</v>
+        <v>0.0167</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5546</v>
+        <v>0.5516</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0105</v>
+        <v>0.0097</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3801</v>
+        <v>0.3531</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0558</v>
+        <v>0.073</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0362</v>
+        <v>-0.0207</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0051</v>
+        <v>0.0058</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.0421</v>
+        <v>-0.0344</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0146</v>
+        <v>-0.0002</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0521</v>
+        <v>-0.1057</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2081</v>
+        <v>0.2896</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0401</v>
+        <v>0.0372</v>
       </c>
       <c r="C24">
         <v>0</v>
